--- a/src/test/resources/example1.xlsx
+++ b/src/test/resources/example1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseignacio/compiladores/workspaces/executeFormulaExcelPoC/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE2399-06B8-654F-8493-435D59CF1D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619039C3-8AE0-134C-8600-3DE350FA47D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{CCFDAE01-3E92-2442-B4DD-CE6B14858EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,12 +32,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Basic Sum</t>
   </si>
   <si>
     <t>Connected formulas</t>
+  </si>
+  <si>
+    <t>Values in a different sheet</t>
+  </si>
+  <si>
+    <t>value1:</t>
   </si>
 </sst>
 </file>
@@ -388,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3A2392-E358-E644-AD66-E3644B5E76EA}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,6 +448,43 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>SUM(Hoja2!B2,Hoja1!A9)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3447B5-20B6-0D45-8674-88F7D6C79779}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
